--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,15 +461,10 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Marks_3</t>
+          <t>Percentage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Percentage</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
@@ -478,222 +473,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2400013</t>
+          <t>2400018</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NTWARI LUCKYSON</t>
+          <t>MUNEZERO CLEMENCE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>75.77380952380952</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Good</t>
+        <v>35.71428571428572</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>241-210</t>
+          <t>2400031</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GANZAMANA EUNICE</t>
+          <t>UMUTONIWASE Mariam</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
-      </c>
-      <c r="G3" t="n">
-        <v>76.9047619047619</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Good</t>
+        <v>51.11111111111111</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Fair</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>241-212</t>
+          <t>240550017</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HAKIZIMANA KASIMU</t>
+          <t>MANIRIHO MESCHACK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>73.39285714285715</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Good</t>
+        <v>46.66666666666666</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>241-213</t>
+          <t>241-257</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IGIHOZO KEVINE</t>
+          <t>Aimee Sylvie Ineza</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>64.5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12.5</v>
+        <v>6.5</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="n">
-        <v>92.61904761904762</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>44.44444444444445</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>241-214</t>
+          <t>241-259</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IGIRIMBABAZI Eric</t>
+          <t>IRAGIKWIYE Honorine</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
-      </c>
-      <c r="G6" t="n">
-        <v>83.03571428571429</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>56.34920634920635</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Fair</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>241-216</t>
+          <t>241-261</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IRASUBIZA ALINE</t>
+          <t>IRASUBIZA SAM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" t="n">
-        <v>83.03571428571429</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>34.44444444444444</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>241-218</t>
+          <t>241-262</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ISHIMWE REHEMA</t>
+          <t>IRIBAGIZA ANGELIQUE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D8" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" t="n">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="H8" t="inlineStr">
+        <v>51.26984126984127</v>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>Fair</t>
         </is>
@@ -702,542 +676,491 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>241-219</t>
+          <t>241-263</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KABATESI WIVINE</t>
+          <t>ISHIMWE FABRICE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="n">
-        <v>81.9047619047619</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>74.60317460317461</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>241-220</t>
+          <t>241-264</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KAMUGISHA BONFILS</t>
+          <t>IZABIRIZA ANGELINE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D10" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
-      </c>
-      <c r="G10" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Fair</t>
+        <v>48.57142857142857</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>241-222</t>
+          <t>241-268</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MUNEZERO GAD</t>
+          <t>MUGISHA GWIZA ALAINE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G11" t="n">
-        <v>68.27380952380952</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Good</t>
+        <v>63.96825396825398</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Fair</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>241-223</t>
+          <t>241-271</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MUTUYIMANA CLARISSE</t>
+          <t>NDACYAYISABA PIERRE JULES</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
-      </c>
-      <c r="G12" t="n">
-        <v>80.5952380952381</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>62.85714285714285</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Fair</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>241-224</t>
+          <t>241-273</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NIYITANGA Julienne</t>
+          <t>NDIKUMANA ELISSA</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
-      </c>
-      <c r="G13" t="n">
-        <v>75.95238095238095</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Good</t>
+        <v>58.88888888888889</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Fair</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>241-226</t>
+          <t>241-275</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TUYIKUNDE ALODIE</t>
+          <t>NIWEMUTONI BELYSE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
-      </c>
-      <c r="G14" t="n">
-        <v>80.89285714285714</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>64.76190476190476</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Fair</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>241-227</t>
+          <t>241-276</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UWASE FRANCINE</t>
+          <t>Niyigaba Nersi</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
-      </c>
-      <c r="G15" t="n">
-        <v>60.83333333333334</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Fair</t>
+        <v>80.15873015873015</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Excellent</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>241-228</t>
+          <t>241-277</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UWAYO CONFIANCE</t>
+          <t>NIYOGISUBIZO ZAMUDA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
-      </c>
-      <c r="G16" t="n">
-        <v>90.29761904761904</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>45.55555555555556</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>241-229</t>
+          <t>241-279</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>UWIDUHAYE DELPHINE</t>
+          <t>NIYOMUKIZA PACIFIQUE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" t="n">
-        <v>56.66666666666666</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Fair</t>
+        <v>96.19047619047619</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Excellent</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>241-231</t>
+          <t>241-280</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UWIYERA Emerence</t>
+          <t>NIYOMWUNGERI GLORIA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E18" t="n">
         <v>9</v>
       </c>
       <c r="F18" t="n">
-        <v>10</v>
-      </c>
-      <c r="G18" t="n">
-        <v>80.17857142857143</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>61.11111111111111</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Fair</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>241-232</t>
+          <t>241-284</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SHIMA UWASE DELICE</t>
+          <t>SANO GAD</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>60.5</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>9.5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
-      </c>
-      <c r="G19" t="n">
-        <v>68.69047619047619</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Good</t>
+        <v>33.33333333333333</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>241-233</t>
+          <t>241-285</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UWUMUKIZA ROSINE</t>
+          <t>UMUGWANEZA ALICE</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" t="n">
-        <v>53.75</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Fair</t>
+        <v>37.77777777777778</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>241-235</t>
+          <t>241-286</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RWEMA THIERY</t>
+          <t>UMUTESI Latifa</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
-      </c>
-      <c r="G21" t="n">
-        <v>79.4047619047619</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Good</t>
+        <v>50</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Fair</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>241-238</t>
+          <t>241-288</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MUHAWENIMANA THERESE</t>
+          <t>UWASE DIVINE A</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D22" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
-      </c>
-      <c r="G22" t="n">
-        <v>83.63095238095238</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>36.19047619047619</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>241-240</t>
+          <t>241-289</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NKURUNZIZA JANVIER</t>
+          <t>UWIMANA GRACE</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
-      </c>
-      <c r="G23" t="n">
-        <v>54.58333333333334</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Fair</t>
+        <v>45.55555555555556</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>241-243</t>
+          <t>241-290</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AKIMANA YVONNE</t>
+          <t>WIBABARA Pauline</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
-      </c>
-      <c r="G24" t="n">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Fair</t>
+        <v>47.3015873015873</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>241-245</t>
+          <t>241-292</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MUNEZERO ALINE</t>
+          <t>IHIMBAZWE REPONSE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>10</v>
-      </c>
-      <c r="G25" t="n">
-        <v>68.86904761904762</v>
-      </c>
-      <c r="H25" t="inlineStr">
+        <v>69.04761904761904</v>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Good</t>
         </is>
@@ -1246,30 +1169,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>241-251</t>
+          <t>241-296</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TUYISHIMIRE GRETTER</t>
+          <t>ISHIMWE Juliette</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D26" t="n">
-        <v>13.5</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
         <v>5</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
-      </c>
-      <c r="G26" t="n">
-        <v>53.75</v>
-      </c>
-      <c r="H26" t="inlineStr">
+        <v>51.5873015873016</v>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Fair</t>
         </is>
@@ -1278,222 +1198,201 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>250550074</t>
+          <t>241-302</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ISHIMWE CLAUDE</t>
+          <t>MUKANDANGA JUDITH</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>10</v>
-      </c>
-      <c r="G27" t="n">
-        <v>53.75</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Fair</t>
+        <v>23.33333333333333</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>251-408</t>
+          <t>241-306</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>UWINEZA LILIANE</t>
+          <t>NIYIGENA Henriette</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
-      </c>
-      <c r="G28" t="n">
-        <v>81.19047619047619</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>67.30158730158729</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>251-409</t>
+          <t>241-307</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NEMEYIMANA GERALD</t>
+          <t>NIYIRORA CECILE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>10</v>
-      </c>
-      <c r="G29" t="n">
-        <v>80.29761904761905</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Excellent</t>
+        <v>36.66666666666667</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>251-410</t>
+          <t>241-312</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MUKESHIMANA VIVIANE</t>
+          <t>NSHUTI LEON PRINCE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
-      </c>
-      <c r="G30" t="n">
-        <v>77.26190476190476</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Good</t>
+        <v>37.77777777777778</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>251-412</t>
+          <t>241-316</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ABIJURU TWAGIRAYESU EMMANUEL</t>
+          <t>TUYISHIMIRE Jean Baptiste</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
-      </c>
-      <c r="G31" t="n">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Fair</t>
+        <v>47.14285714285714</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Weak</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>252-007</t>
+          <t>241-321</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>UMUTONIWASE KELLIA</t>
+          <t>UMUTONIWASE Dalila</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
-      </c>
-      <c r="G32" t="n">
-        <v>50.53571428571428</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Fair</t>
+        <v>68.88888888888887</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Good</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>260550012</t>
+          <t>241-322</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NDUWAJAMBO BEDA</t>
+          <t>UMWARI SYLVIE</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="inlineStr">
+        <v>25.55555555555555</v>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
@@ -1502,30 +1401,346 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>262-015</t>
+          <t>241-323</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GIKUNDIRO SYLVIE</t>
+          <t>UTUJE ALIDIQUE</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="inlineStr">
+        <v>42.22222222222222</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>241-324</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>UWASE DIVINE B</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>43</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+      <c r="E35" t="n">
+        <v>5</v>
+      </c>
+      <c r="F35" t="n">
+        <v>46.03174603174603</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>241-326</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>UWIMANA Solange</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>50</v>
+      </c>
+      <c r="D36" t="n">
+        <v>7</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>59.36507936507937</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>241-329</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>UWIZEYE HARIMA</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>51</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>7</v>
+      </c>
+      <c r="F37" t="n">
+        <v>47.61904761904761</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>251-400</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GAKURU JESCA</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>37.77777777777778</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>251-401</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ISHIMWE STEVEN</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>66</v>
+      </c>
+      <c r="D39" t="n">
+        <v>14</v>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>79.2063492063492</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>251-402</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>KANDAMA ESPERANCE</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>46</v>
+      </c>
+      <c r="D40" t="n">
+        <v>10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>60.79365079365079</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>251-403</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>NYAGATO SARAH</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>34.44444444444444</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>251-404</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>OMBENI FABRICE</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>51</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6</v>
+      </c>
+      <c r="E42" t="n">
+        <v>10</v>
+      </c>
+      <c r="F42" t="n">
+        <v>70.95238095238095</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>251-405</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TURINAYO PATRICK</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>44</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>73.17460317460316</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>251-406</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>UJENEZA CHARMANTE</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>41</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" t="n">
+        <v>58.41269841269842</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>260550015</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MAWAZO EDITH</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
